--- a/接口文档/商品api/搜索引擎_商品.xlsx
+++ b/接口文档/商品api/搜索引擎_商品.xlsx
@@ -7,51 +7,1868 @@
     <workbookView windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="商品列表app端" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
   <si>
     <t>功能说明：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">商品列表app端
+</t>
+  </si>
+  <si>
+    <t>接口地址：</t>
+  </si>
+  <si>
+    <t>http://192.168.1.129:9200/index_product/product_type/_search</t>
+  </si>
+  <si>
+    <t>请求方式：</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>请求参数：</t>
+  </si>
+  <si>
+    <t>字段名称</t>
+  </si>
+  <si>
+    <t>允许为空</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>字段描述</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "query": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "match_all": {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "from": 1,</t>
+  </si>
+  <si>
+    <t>从第一条记录开始取</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "size": 1,</t>
+  </si>
+  <si>
+    <t>每次取一条</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "sort": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "visitorVolume": {</t>
+  </si>
+  <si>
+    <t>按人气排序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "order": "desc"</t>
+  </si>
+  <si>
+    <t>倒序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "salesVolume": {</t>
+  </si>
+  <si>
+    <t>按销量排序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "upAt": {</t>
+  </si>
+  <si>
+    <t>上架时间排序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "lowPrice": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "order": "asc"</t>
+  </si>
+  <si>
+    <t>最低价排序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>需要哪个条件传入哪个，多个排序条件可以组合使用</t>
+  </si>
+  <si>
+    <t>响应参数：</t>
+  </si>
+  <si>
+    <t>公共响应参数</t>
+  </si>
+  <si>
+    <t>响应参数</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"took"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"timed_out"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"_shards"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"total"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"successful"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"failed"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"hits"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"total"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>本次查询记录数</t>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"max_score"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFF1592A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"hits"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+  </si>
+  <si>
+    <t>            {</t>
+  </si>
+  <si>
+    <r>
+      <t>                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"_index"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"index_product"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"_type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"product_type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"_id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161121110528001"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"_score"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFF1592A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"_source"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161121110528001"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"title"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"华为 Mate 9"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"subTitle"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"双摄像头"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"propertis"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"[{"id":0,"name":"产地","value":"中国"}]"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"specs"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"[{"id":"00","name":"颜色","value":"金色,黑色","list":["金色","黑色"]}]"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"pictures"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"[["2/20161115/1_1479198367088.jpg","2/20161115/1_1479198372160.jpg","2/20161115/1_1479198376785.jpg","2/20161115/1_1479198380715.jpg","2/20161115/1_1479198383836.jpg"],["2/20161115/1_1479198386651.jpg","2/20161115/1_1479198389438.jpg","2/20161115/1_1479198392157.jpg","2/20161115/1_1479198396844.jpg","2/20161115/1_1479198399680.jpg"]]"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"lowPrice"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"highPrice"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"mainPicture"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFF1592A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"description"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"visitorVolume"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFF1592A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"salesVolume"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFF1592A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"totalVolume"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"status"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"catalogId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109150947004"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"brandId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"120161109170548017"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"storeId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"classifyIds"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"261"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"createdAt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1479697528299</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"upAt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1479697528300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"downAt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFF1592A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"delAt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFF1592A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"isWeekReturn"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"Y"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"sign"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"C9241688F4BBB87E8A792919C4532A7E"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"listInventory"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFF1592A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+  </si>
+  <si>
+    <t>                },</t>
+  </si>
+  <si>
+    <r>
+      <t>                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"sort"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:[</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1479697528299</t>
+    </r>
+  </si>
+  <si>
+    <t>                ]</t>
+  </si>
+  <si>
+    <t>            }</t>
+  </si>
+  <si>
+    <t>        ]</t>
+  </si>
+  <si>
+    <t>    }</t>
   </si>
   <si>
     <t xml:space="preserve">新增商品
 </t>
   </si>
   <si>
-    <t>接口地址：</t>
-  </si>
-  <si>
     <t>http://192.168.1.129:9200/index_product/product_type/120161115172645001</t>
   </si>
   <si>
-    <t>请求方式：</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>请求参数：</t>
-  </si>
-  <si>
-    <t>字段名称</t>
-  </si>
-  <si>
-    <t>允许为空</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>字段描述</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -67,18 +1884,6 @@
     <t>["120161114190212001-00000100","120161114190212001-00000100"]</t>
   </si>
   <si>
-    <t>响应参数：</t>
-  </si>
-  <si>
-    <t>公共响应参数</t>
-  </si>
-  <si>
-    <t>响应参数</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
     <t xml:space="preserve">    "id": "120161115172645001",</t>
   </si>
   <si>
@@ -149,9 +1954,6 @@
   </si>
   <si>
     <t xml:space="preserve">    "listInventory": null</t>
-  </si>
-  <si>
-    <t>}</t>
   </si>
 </sst>
 </file>
@@ -159,12 +1961,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,15 +2001,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,14 +2024,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -244,28 +2092,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -274,44 +2100,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,14 +2122,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -341,22 +2130,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF92278F"/>
+      <name val="Monaco"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF25AAE2"/>
+      <name val="Monaco"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFF1592A"/>
+      <name val="Monaco"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF3AB54A"/>
+      <name val="Monaco"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,7 +2207,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,85 +2321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,67 +2333,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,8 +2367,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -691,22 +2515,50 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,7 +2582,25 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,24 +2637,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,153 +2650,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,6 +2877,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1366,13 +3259,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.125" style="1" customWidth="1"/>
@@ -1419,414 +3312,592 @@
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="31"/>
+      <c r="B7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="A8" s="31"/>
+      <c r="B8" s="29" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="13"/>
-      <c r="B6" s="16" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="31"/>
+      <c r="B9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="21" customHeight="1" spans="1:5">
-      <c r="A7" s="11" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="31"/>
+      <c r="B10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
-      <c r="A8" s="13"/>
-      <c r="B8" s="22"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="13"/>
-      <c r="B9" s="22"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A10" s="13"/>
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="13"/>
-      <c r="B11" s="23" t="s">
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="31"/>
+      <c r="B11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="13"/>
-      <c r="B12" s="23" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="31"/>
+      <c r="B12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="13"/>
-      <c r="B13" s="23" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="13"/>
-      <c r="B14" s="23" t="s">
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
+      <c r="A13" s="31"/>
+      <c r="B13" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="13"/>
-      <c r="B15" s="23" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:5">
-      <c r="A16" s="13"/>
-      <c r="B16" s="23" t="s">
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:6">
+      <c r="A14" s="31"/>
+      <c r="B14" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:5">
-      <c r="A17" s="13"/>
-      <c r="B17" s="23" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:6">
+      <c r="A15" s="31"/>
+      <c r="B15" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:5">
-      <c r="A18" s="13"/>
-      <c r="B18" s="23" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:5">
-      <c r="A19" s="13"/>
-      <c r="B19" s="23" t="s">
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:6">
+      <c r="A16" s="31"/>
+      <c r="B16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:6">
+      <c r="A17" s="31"/>
+      <c r="B17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:6">
+      <c r="A18" s="31"/>
+      <c r="B18" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="13"/>
-      <c r="B20" s="23" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:6">
+      <c r="A19" s="31"/>
+      <c r="B19" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:5">
-      <c r="A21" s="25"/>
-      <c r="B21" s="23" t="s">
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:6">
+      <c r="A20" s="31"/>
+      <c r="B20" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:6">
+      <c r="A21" s="31"/>
+      <c r="B21" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="2:5">
-      <c r="B22" s="23" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:6">
+      <c r="A22" s="31"/>
+      <c r="B22" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="2:5">
-      <c r="B23" s="23" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="26"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B24" s="23" t="s">
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:6">
+      <c r="A23" s="31"/>
+      <c r="B23" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="2:5">
-      <c r="B25" s="23" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:6">
+      <c r="A24" s="31"/>
+      <c r="B24" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="26"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B26" s="23" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
+      <c r="A25" s="31"/>
+      <c r="B25" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
-      <c r="B27" s="23" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="33" t="s">
         <v>35</v>
       </c>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="21" customHeight="1" spans="1:5">
+      <c r="A26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
+      <c r="A27" s="13"/>
+      <c r="B27" s="22"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="23" t="s">
-        <v>36</v>
-      </c>
+    <row r="28" s="1" customFormat="1" spans="1:5">
+      <c r="A28" s="13"/>
+      <c r="B28" s="22"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="23" t="s">
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A29" s="13"/>
+      <c r="B29" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="23" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:5">
+      <c r="A30" s="13"/>
+      <c r="B30" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:5">
+      <c r="A31" s="13"/>
+      <c r="B31" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="23" t="s">
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:5">
+      <c r="A32" s="13"/>
+      <c r="B32" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="23" t="s">
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:5">
+      <c r="A33" s="13"/>
+      <c r="B33" s="37" t="s">
         <v>41</v>
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="23" t="s">
+    <row r="34" s="1" customFormat="1" spans="1:5">
+      <c r="A34" s="13"/>
+      <c r="B34" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="23" t="s">
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:5">
+      <c r="A35" s="13"/>
+      <c r="B35" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="23" t="s">
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:5">
+      <c r="A36" s="13"/>
+      <c r="B36" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="2:5">
-      <c r="B37" s="23"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="2:5">
-      <c r="B38" s="23"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="2:5">
-      <c r="B39" s="23"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="23"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:5">
+      <c r="A37" s="13"/>
+      <c r="B37" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:5">
+      <c r="A38" s="13"/>
+      <c r="B38" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:5">
+      <c r="A39" s="13"/>
+      <c r="B39" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:5">
+      <c r="A40" s="25"/>
+      <c r="B40" s="37" t="s">
+        <v>49</v>
+      </c>
       <c r="E40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="23"/>
-      <c r="E41" s="3"/>
+      <c r="B41" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="23"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="2:5">
-      <c r="B43" s="23"/>
-      <c r="E43" s="3"/>
+      <c r="B42" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="26"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
+      <c r="B43" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="22"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="23"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="2:5">
-      <c r="B45" s="23"/>
+      <c r="B44" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="26"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
+      <c r="B45" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="23"/>
+    <row r="46" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
+      <c r="B46" s="37" t="s">
+        <v>55</v>
+      </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="23"/>
+      <c r="B47" s="37" t="s">
+        <v>56</v>
+      </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="23"/>
+      <c r="B48" s="37" t="s">
+        <v>57</v>
+      </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="23"/>
+      <c r="B49" s="37" t="s">
+        <v>58</v>
+      </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="23"/>
+      <c r="B50" s="37" t="s">
+        <v>59</v>
+      </c>
       <c r="E50" s="3"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="23"/>
+      <c r="B51" s="37" t="s">
+        <v>60</v>
+      </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="23"/>
+      <c r="B52" s="37" t="s">
+        <v>61</v>
+      </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="23"/>
+      <c r="B53" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="E53" s="3"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:5">
-      <c r="B54" s="23"/>
+      <c r="B54" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="E54" s="3"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:5">
-      <c r="B55" s="23"/>
+      <c r="B55" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:5">
-      <c r="B56" s="23"/>
+      <c r="B56" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="E56" s="3"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="2:5">
-      <c r="B57" s="23"/>
+      <c r="B57" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="2:5">
-      <c r="B58" s="23"/>
+      <c r="B58" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:5">
-      <c r="B59" s="23"/>
+      <c r="B59" s="38" t="s">
+        <v>68</v>
+      </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="23"/>
+      <c r="B60" s="37" t="s">
+        <v>69</v>
+      </c>
       <c r="E60" s="3"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:5">
-      <c r="B61" s="23"/>
+      <c r="B61" s="37" t="s">
+        <v>70</v>
+      </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:5">
-      <c r="B62" s="23"/>
+      <c r="B62" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:5">
-      <c r="B63" s="23"/>
+      <c r="B63" s="37" t="s">
+        <v>72</v>
+      </c>
       <c r="E63" s="3"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:5">
-      <c r="B64" s="23"/>
+      <c r="B64" s="37" t="s">
+        <v>73</v>
+      </c>
       <c r="E64" s="3"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:5">
-      <c r="B65" s="23"/>
+      <c r="B65" s="37" t="s">
+        <v>74</v>
+      </c>
       <c r="E65" s="3"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:5">
-      <c r="B66" s="23"/>
+      <c r="B66" s="37" t="s">
+        <v>75</v>
+      </c>
       <c r="E66" s="3"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:5">
-      <c r="B67" s="23"/>
+      <c r="B67" s="37" t="s">
+        <v>76</v>
+      </c>
       <c r="E67" s="3"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:5">
-      <c r="B68" s="23"/>
+      <c r="B68" s="37" t="s">
+        <v>77</v>
+      </c>
       <c r="E68" s="3"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:5">
-      <c r="B69" s="23"/>
+      <c r="B69" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="E69" s="3"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:5">
-      <c r="B70" s="23"/>
+      <c r="B70" s="37" t="s">
+        <v>79</v>
+      </c>
       <c r="E70" s="3"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:5">
-      <c r="B71" s="23"/>
+      <c r="B71" s="37" t="s">
+        <v>80</v>
+      </c>
       <c r="E71" s="3"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:5">
-      <c r="B72" s="23"/>
+      <c r="B72" s="37" t="s">
+        <v>81</v>
+      </c>
       <c r="E72" s="3"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:5">
-      <c r="B73" s="23"/>
+      <c r="B73" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="E73" s="3"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:5">
-      <c r="B74" s="23"/>
+      <c r="B74" s="37" t="s">
+        <v>83</v>
+      </c>
       <c r="E74" s="3"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:5">
-      <c r="B75" s="23"/>
+      <c r="B75" s="37" t="s">
+        <v>84</v>
+      </c>
       <c r="E75" s="3"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:5">
-      <c r="B76" s="23"/>
+      <c r="B76" s="37" t="s">
+        <v>85</v>
+      </c>
       <c r="E76" s="3"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:5">
-      <c r="B77" s="23"/>
+      <c r="B77" s="37" t="s">
+        <v>86</v>
+      </c>
       <c r="E77" s="3"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:5">
-      <c r="B78" s="23"/>
+      <c r="B78" s="37" t="s">
+        <v>87</v>
+      </c>
       <c r="E78" s="3"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="2:5">
-      <c r="B79" s="23"/>
+      <c r="B79" s="37" t="s">
+        <v>88</v>
+      </c>
       <c r="E79" s="3"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="2:5">
-      <c r="B80" s="23"/>
+      <c r="B80" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="E80" s="3"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="2:5">
@@ -2029,18 +4100,93 @@
       <c r="B130" s="23"/>
       <c r="E130" s="3"/>
     </row>
+    <row r="131" s="1" customFormat="1" spans="2:5">
+      <c r="B131" s="23"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" s="1" customFormat="1" spans="2:5">
+      <c r="B132" s="23"/>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" s="1" customFormat="1" spans="2:5">
+      <c r="B133" s="23"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" s="1" customFormat="1" spans="2:5">
+      <c r="B134" s="23"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" s="1" customFormat="1" spans="2:5">
+      <c r="B135" s="23"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" s="1" customFormat="1" spans="2:5">
+      <c r="B136" s="23"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" s="1" customFormat="1" spans="2:5">
+      <c r="B137" s="23"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" s="1" customFormat="1" spans="2:5">
+      <c r="B138" s="23"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" s="1" customFormat="1" spans="2:5">
+      <c r="B139" s="23"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" s="1" customFormat="1" spans="2:5">
+      <c r="B140" s="23"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" s="1" customFormat="1" spans="2:5">
+      <c r="B141" s="23"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" s="1" customFormat="1" spans="2:5">
+      <c r="B142" s="23"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" s="1" customFormat="1" spans="2:5">
+      <c r="B143" s="23"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" s="1" customFormat="1" spans="2:5">
+      <c r="B144" s="23"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" s="1" customFormat="1" spans="2:5">
+      <c r="B145" s="23"/>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" s="1" customFormat="1" spans="2:5">
+      <c r="B146" s="23"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" s="1" customFormat="1" spans="2:5">
+      <c r="B147" s="23"/>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" s="1" customFormat="1" spans="2:5">
+      <c r="B148" s="23"/>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" s="1" customFormat="1" spans="2:5">
+      <c r="B149" s="23"/>
+      <c r="E149" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A26:A40"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.129:9200/index_product/product_type/120161115172645001" tooltip="http://192.168.1.129:9200/index_product/product_type/120161115172645001"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.129:9200/index_product/product_type/_search" tooltip="http://192.168.1.129:9200/index_product/product_type/_search"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2068,14 +4214,682 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.25" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:5">
+      <c r="A6" s="13"/>
+      <c r="B6" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="21" customHeight="1" spans="1:5">
+      <c r="A7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
+      <c r="A8" s="13"/>
+      <c r="B8" s="22"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:5">
+      <c r="A9" s="13"/>
+      <c r="B9" s="22"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A10" s="13"/>
+      <c r="B10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:5">
+      <c r="A11" s="13"/>
+      <c r="B11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:5">
+      <c r="A12" s="13"/>
+      <c r="B12" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:5">
+      <c r="A13" s="13"/>
+      <c r="B13" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:5">
+      <c r="A14" s="13"/>
+      <c r="B14" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:5">
+      <c r="A15" s="13"/>
+      <c r="B15" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:5">
+      <c r="A16" s="13"/>
+      <c r="B16" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:5">
+      <c r="A17" s="13"/>
+      <c r="B17" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:5">
+      <c r="A18" s="13"/>
+      <c r="B18" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:5">
+      <c r="A19" s="13"/>
+      <c r="B19" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:5">
+      <c r="A20" s="13"/>
+      <c r="B20" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:5">
+      <c r="A21" s="25"/>
+      <c r="B21" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="2:5">
+      <c r="B22" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="2:5">
+      <c r="B23" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
+      <c r="B24" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:5">
+      <c r="B25" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
+      <c r="B26" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
+      <c r="B27" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:5">
+      <c r="B28" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="2:5">
+      <c r="B29" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:5">
+      <c r="B30" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:5">
+      <c r="B31" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:5">
+      <c r="B32" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:5">
+      <c r="B33" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:5">
+      <c r="B34" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:5">
+      <c r="B35" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="2:5">
+      <c r="B36" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:5">
+      <c r="B37" s="23"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:5">
+      <c r="B38" s="23"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:5">
+      <c r="B39" s="23"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:5">
+      <c r="B40" s="23"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:5">
+      <c r="B41" s="23"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:5">
+      <c r="B42" s="23"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:5">
+      <c r="B43" s="23"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:5">
+      <c r="B44" s="23"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:5">
+      <c r="B45" s="23"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:5">
+      <c r="B46" s="23"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:5">
+      <c r="B47" s="23"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:5">
+      <c r="B48" s="23"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:5">
+      <c r="B49" s="23"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:5">
+      <c r="B50" s="23"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:5">
+      <c r="B51" s="23"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:5">
+      <c r="B52" s="23"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:5">
+      <c r="B53" s="23"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:5">
+      <c r="B54" s="23"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:5">
+      <c r="B55" s="23"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:5">
+      <c r="B56" s="23"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:5">
+      <c r="B57" s="23"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:5">
+      <c r="B58" s="23"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:5">
+      <c r="B59" s="23"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:5">
+      <c r="B60" s="23"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:5">
+      <c r="B61" s="23"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:5">
+      <c r="B62" s="23"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:5">
+      <c r="B63" s="23"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:5">
+      <c r="B64" s="23"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:5">
+      <c r="B65" s="23"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="2:5">
+      <c r="B66" s="23"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:5">
+      <c r="B67" s="23"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:5">
+      <c r="B68" s="23"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="2:5">
+      <c r="B69" s="23"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="2:5">
+      <c r="B70" s="23"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:5">
+      <c r="B71" s="23"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:5">
+      <c r="B72" s="23"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:5">
+      <c r="B73" s="23"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:5">
+      <c r="B74" s="23"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:5">
+      <c r="B75" s="23"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:5">
+      <c r="B76" s="23"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:5">
+      <c r="B77" s="23"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:5">
+      <c r="B78" s="23"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:5">
+      <c r="B79" s="23"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="2:5">
+      <c r="B80" s="23"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="2:5">
+      <c r="B81" s="23"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="2:5">
+      <c r="B82" s="23"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="2:5">
+      <c r="B83" s="23"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="2:5">
+      <c r="B84" s="23"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="2:5">
+      <c r="B85" s="23"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="2:5">
+      <c r="B86" s="23"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="2:5">
+      <c r="B87" s="23"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="2:5">
+      <c r="B88" s="23"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="2:5">
+      <c r="B89" s="23"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="2:5">
+      <c r="B90" s="23"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" s="1" customFormat="1" spans="2:5">
+      <c r="B91" s="23"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" s="1" customFormat="1" spans="2:5">
+      <c r="B92" s="23"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" s="1" customFormat="1" spans="2:5">
+      <c r="B93" s="23"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" s="1" customFormat="1" spans="2:5">
+      <c r="B94" s="23"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" s="1" customFormat="1" spans="2:5">
+      <c r="B95" s="23"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" s="1" customFormat="1" spans="2:5">
+      <c r="B96" s="23"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" s="1" customFormat="1" spans="2:5">
+      <c r="B97" s="23"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" s="1" customFormat="1" spans="2:5">
+      <c r="B98" s="23"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" s="1" customFormat="1" spans="2:5">
+      <c r="B99" s="23"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" s="1" customFormat="1" spans="2:5">
+      <c r="B100" s="23"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" s="1" customFormat="1" spans="2:5">
+      <c r="B101" s="23"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" s="1" customFormat="1" spans="2:5">
+      <c r="B102" s="23"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" s="1" customFormat="1" spans="2:5">
+      <c r="B103" s="23"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" s="1" customFormat="1" spans="2:5">
+      <c r="B104" s="23"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" s="1" customFormat="1" spans="2:5">
+      <c r="B105" s="23"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" s="1" customFormat="1" spans="2:5">
+      <c r="B106" s="23"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" s="1" customFormat="1" spans="2:5">
+      <c r="B107" s="23"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" s="1" customFormat="1" spans="2:5">
+      <c r="B108" s="23"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" s="1" customFormat="1" spans="2:5">
+      <c r="B109" s="23"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" s="1" customFormat="1" spans="2:5">
+      <c r="B110" s="23"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="2:5">
+      <c r="B111" s="23"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" s="1" customFormat="1" spans="2:5">
+      <c r="B112" s="23"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" s="1" customFormat="1" spans="2:5">
+      <c r="B113" s="23"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" s="1" customFormat="1" spans="2:5">
+      <c r="B114" s="23"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" s="1" customFormat="1" spans="2:5">
+      <c r="B115" s="23"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" s="1" customFormat="1" spans="2:5">
+      <c r="B116" s="23"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" s="1" customFormat="1" spans="2:5">
+      <c r="B117" s="23"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" s="1" customFormat="1" spans="2:5">
+      <c r="B118" s="23"/>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" s="1" customFormat="1" spans="2:5">
+      <c r="B119" s="23"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" s="1" customFormat="1" spans="2:5">
+      <c r="B120" s="23"/>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" s="1" customFormat="1" spans="2:5">
+      <c r="B121" s="23"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" s="1" customFormat="1" spans="2:5">
+      <c r="B122" s="23"/>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" s="1" customFormat="1" spans="2:5">
+      <c r="B123" s="23"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" s="1" customFormat="1" spans="2:5">
+      <c r="B124" s="23"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" s="1" customFormat="1" spans="2:5">
+      <c r="B125" s="23"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" s="1" customFormat="1" spans="2:5">
+      <c r="B126" s="23"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" s="1" customFormat="1" spans="2:5">
+      <c r="B127" s="23"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" s="1" customFormat="1" spans="2:5">
+      <c r="B128" s="23"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" s="1" customFormat="1" spans="2:5">
+      <c r="B129" s="23"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" s="1" customFormat="1" spans="2:5">
+      <c r="B130" s="23"/>
+      <c r="E130" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A7:A21"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.129:9200/index_product/product_type/120161115172645001" tooltip="http://192.168.1.129:9200/index_product/product_type/120161115172645001"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/接口文档/商品api/搜索引擎_商品.xlsx
+++ b/接口文档/商品api/搜索引擎_商品.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="商品列表app端" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>功能说明：</t>
   </si>
@@ -137,6 +135,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -180,6 +184,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -222,6 +232,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -255,6 +271,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -298,6 +320,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -341,6 +369,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -375,6 +409,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    }</t>
     </r>
     <r>
@@ -389,6 +429,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -422,6 +468,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -468,6 +520,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -511,6 +569,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -547,6 +611,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -590,6 +660,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -633,6 +709,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -676,6 +758,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -719,6 +807,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -743,6 +837,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -786,6 +886,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -829,6 +935,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -872,6 +984,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -915,6 +1033,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -958,6 +1082,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1001,6 +1131,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1044,6 +1180,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1087,6 +1229,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1130,6 +1278,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1173,6 +1327,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1216,6 +1376,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1259,6 +1425,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1302,6 +1474,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1345,6 +1523,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1388,6 +1572,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1431,6 +1621,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1474,6 +1670,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1517,6 +1719,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1560,6 +1768,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1603,6 +1817,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1646,6 +1866,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1689,6 +1915,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1732,6 +1964,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1775,6 +2013,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1812,6 +2056,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -1836,6 +2086,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                    </t>
     </r>
     <r>
@@ -1860,100 +2116,6 @@
   </si>
   <si>
     <t>    }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新增商品
-</t>
-  </si>
-  <si>
-    <t>http://192.168.1.129:9200/index_product/product_type/120161115172645001</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>商品ID</t>
-  </si>
-  <si>
-    <t>["120161114190212001-00000100","120161114190212001-00000100"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "id": "120161115172645001",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "title": "华为 Mate 9",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "subTitle": "双摄像头",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "propertis": "[{\"id\":0,\"name\":\"产地\",\"value\":\"中国\"}]",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "specs": "[{\"id\":\"00\",\"name\":\"颜色\",\"value\":\"金色,黑色\",\"list\":[\"金色\",\"黑色\"]}]",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "pictures": "[[\"2/20161115/1_1479201961026.jpg\",\"2/20161115/1_1479201963990.jpg\",\"2/20161115/1_1479201966857.jpg\",\"2/20161115/1_1479201970147.jpg\",\"2/20161115/1_1479201973887.jpg\"],[\"2/20161115/1_1479201977706.jpg\",\"2/20161115/1_1479201982810.jpg\",\"2/20161115/1_1479201985698.jpg\",\"2/20161115/1_1479201988543.jpg\",\"2/20161115/1_1479201991855.jpg\"]]",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "lowPrice": 4000,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "highPrice": 5000,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "mainPicture": "[\"2/20161115/1_1479201961026.jpg\",\"2/20161115/1_1479201963990.jpg\",\"2/20161115/1_1479201966857.jpg\",\"2/20161115/1_1479201970147.jpg\",\"2/20161115/1_1479201973887.jpg\"]",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "description": "",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "visitorVolume": null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "salesVolume": null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "status": "0",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "catalogId": "120161109150947004",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "brandId": "120161109170548017",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "storeId": "1111",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "classifyIds": "261",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "createdAt": 1479202005409,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "upAt": 1479202005410,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "downAt": null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "delAt": null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "isWeekReturn": "Y",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "sign": "2D38BD3DDFD0DB473C1D7720E123D953",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "listInventory": null</t>
   </si>
 </sst>
 </file>
@@ -1962,9 +2124,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1995,12 +2157,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF555555"/>
-      <name val="Monaco"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -2008,8 +2164,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF555555"/>
+      <name val="Monaco"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2024,7 +2194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2037,6 +2207,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -2044,8 +2222,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2060,26 +2275,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2091,16 +2290,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2116,37 +2308,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2207,13 +2369,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2225,19 +2441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2255,73 +2465,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2339,13 +2507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2357,13 +2525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2375,13 +2537,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2463,6 +2625,39 @@
       <left style="hair">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right style="hair">
         <color auto="1"/>
       </right>
@@ -2515,54 +2710,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2587,11 +2734,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2601,6 +2769,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2620,21 +2797,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2653,10 +2815,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2665,138 +2827,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2833,85 +2995,61 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3261,7 +3399,7 @@
   <sheetPr/>
   <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B26" sqref="B26:E26"/>
     </sheetView>
   </sheetViews>
@@ -3315,10 +3453,10 @@
       <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -3326,327 +3464,327 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="31"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="31"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="31"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="31"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="30"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="31"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="31"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="30"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="31"/>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="30"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:6">
-      <c r="A14" s="31"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="30"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:6">
-      <c r="A15" s="31"/>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="30"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:6">
-      <c r="A16" s="31"/>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:6">
-      <c r="A17" s="31"/>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
-      <c r="A18" s="31"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:6">
-      <c r="A19" s="31"/>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="30"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:6">
-      <c r="A20" s="31"/>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:6">
-      <c r="A21" s="31"/>
-      <c r="B21" s="29" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:6">
-      <c r="A22" s="31"/>
-      <c r="B22" s="29" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="30"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:6">
-      <c r="A23" s="31"/>
-      <c r="B23" s="29" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
-      <c r="A24" s="31"/>
-      <c r="B24" s="29" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:6">
-      <c r="A25" s="31"/>
-      <c r="B25" s="29" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="33" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="30"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="21" customHeight="1" spans="1:5">
       <c r="A26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
-      <c r="A27" s="13"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="22"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:5">
-      <c r="A28" s="13"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A29" s="13"/>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:5">
-      <c r="A30" s="13"/>
-      <c r="B30" s="37" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:5">
-      <c r="A31" s="13"/>
-      <c r="B31" s="37" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="24"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:5">
-      <c r="A32" s="13"/>
-      <c r="B32" s="37" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="26" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="22"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:5">
-      <c r="A33" s="13"/>
-      <c r="B33" s="37" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:5">
-      <c r="A34" s="13"/>
-      <c r="B34" s="37" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="26" t="s">
         <v>42</v>
       </c>
       <c r="E34" s="22"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:5">
-      <c r="A35" s="13"/>
-      <c r="B35" s="37" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="26" t="s">
         <v>43</v>
       </c>
       <c r="E35" s="22"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:5">
-      <c r="A36" s="13"/>
-      <c r="B36" s="37" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="26" t="s">
         <v>44</v>
       </c>
       <c r="E36" s="22"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:5">
-      <c r="A37" s="13"/>
-      <c r="B37" s="37" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="26" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="22"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:5">
-      <c r="A38" s="13"/>
-      <c r="B38" s="37" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="26" t="s">
         <v>46</v>
       </c>
       <c r="E38" s="22"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:5">
-      <c r="A39" s="13"/>
-      <c r="B39" s="37" t="s">
+      <c r="A39" s="21"/>
+      <c r="B39" s="26" t="s">
         <v>47</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -3654,526 +3792,526 @@
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:5">
-      <c r="A40" s="25"/>
-      <c r="B40" s="37" t="s">
+      <c r="A40" s="28"/>
+      <c r="B40" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="26" t="s">
         <v>50</v>
       </c>
       <c r="E41" s="22"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="26"/>
+      <c r="E42" s="29"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="26" t="s">
         <v>52</v>
       </c>
       <c r="E43" s="22"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="26"/>
+      <c r="E44" s="29"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="26" t="s">
         <v>54</v>
       </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="26" t="s">
         <v>55</v>
       </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="26" t="s">
         <v>56</v>
       </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="26" t="s">
         <v>57</v>
       </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="26" t="s">
         <v>58</v>
       </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="26" t="s">
         <v>59</v>
       </c>
       <c r="E50" s="3"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="26" t="s">
         <v>60</v>
       </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="26" t="s">
         <v>61</v>
       </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="26" t="s">
         <v>62</v>
       </c>
       <c r="E53" s="3"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:5">
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="26" t="s">
         <v>63</v>
       </c>
       <c r="E54" s="3"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:5">
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="26" t="s">
         <v>64</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:5">
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="26" t="s">
         <v>65</v>
       </c>
       <c r="E56" s="3"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="2:5">
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="26" t="s">
         <v>66</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="2:5">
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="26" t="s">
         <v>67</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:5">
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="26" t="s">
         <v>68</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="26" t="s">
         <v>69</v>
       </c>
       <c r="E60" s="3"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:5">
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="26" t="s">
         <v>70</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:5">
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="26" t="s">
         <v>71</v>
       </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:5">
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E63" s="3"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:5">
-      <c r="B64" s="37" t="s">
+      <c r="B64" s="26" t="s">
         <v>73</v>
       </c>
       <c r="E64" s="3"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:5">
-      <c r="B65" s="37" t="s">
+      <c r="B65" s="26" t="s">
         <v>74</v>
       </c>
       <c r="E65" s="3"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:5">
-      <c r="B66" s="37" t="s">
+      <c r="B66" s="26" t="s">
         <v>75</v>
       </c>
       <c r="E66" s="3"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:5">
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="26" t="s">
         <v>76</v>
       </c>
       <c r="E67" s="3"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:5">
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="26" t="s">
         <v>77</v>
       </c>
       <c r="E68" s="3"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:5">
-      <c r="B69" s="37" t="s">
+      <c r="B69" s="26" t="s">
         <v>78</v>
       </c>
       <c r="E69" s="3"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:5">
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="26" t="s">
         <v>79</v>
       </c>
       <c r="E70" s="3"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:5">
-      <c r="B71" s="37" t="s">
+      <c r="B71" s="26" t="s">
         <v>80</v>
       </c>
       <c r="E71" s="3"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:5">
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="26" t="s">
         <v>81</v>
       </c>
       <c r="E72" s="3"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:5">
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="26" t="s">
         <v>82</v>
       </c>
       <c r="E73" s="3"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:5">
-      <c r="B74" s="37" t="s">
+      <c r="B74" s="26" t="s">
         <v>83</v>
       </c>
       <c r="E74" s="3"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:5">
-      <c r="B75" s="37" t="s">
+      <c r="B75" s="26" t="s">
         <v>84</v>
       </c>
       <c r="E75" s="3"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:5">
-      <c r="B76" s="37" t="s">
+      <c r="B76" s="26" t="s">
         <v>85</v>
       </c>
       <c r="E76" s="3"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:5">
-      <c r="B77" s="37" t="s">
+      <c r="B77" s="26" t="s">
         <v>86</v>
       </c>
       <c r="E77" s="3"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:5">
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="26" t="s">
         <v>87</v>
       </c>
       <c r="E78" s="3"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="2:5">
-      <c r="B79" s="37" t="s">
+      <c r="B79" s="26" t="s">
         <v>88</v>
       </c>
       <c r="E79" s="3"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="2:5">
-      <c r="B80" s="37" t="s">
+      <c r="B80" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E80" s="3"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="2:5">
-      <c r="B81" s="23"/>
+      <c r="B81" s="30"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" s="1" customFormat="1" spans="2:5">
-      <c r="B82" s="23"/>
+      <c r="B82" s="30"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="2:5">
-      <c r="B83" s="23"/>
+      <c r="B83" s="30"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="2:5">
-      <c r="B84" s="23"/>
+      <c r="B84" s="30"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="2:5">
-      <c r="B85" s="23"/>
+      <c r="B85" s="30"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="2:5">
-      <c r="B86" s="23"/>
+      <c r="B86" s="30"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="2:5">
-      <c r="B87" s="23"/>
+      <c r="B87" s="30"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="2:5">
-      <c r="B88" s="23"/>
+      <c r="B88" s="30"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="2:5">
-      <c r="B89" s="23"/>
+      <c r="B89" s="30"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="2:5">
-      <c r="B90" s="23"/>
+      <c r="B90" s="30"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" s="1" customFormat="1" spans="2:5">
-      <c r="B91" s="23"/>
+      <c r="B91" s="30"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="2:5">
-      <c r="B92" s="23"/>
+      <c r="B92" s="30"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" s="1" customFormat="1" spans="2:5">
-      <c r="B93" s="23"/>
+      <c r="B93" s="30"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="2:5">
-      <c r="B94" s="23"/>
+      <c r="B94" s="30"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" s="1" customFormat="1" spans="2:5">
-      <c r="B95" s="23"/>
+      <c r="B95" s="30"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="2:5">
-      <c r="B96" s="23"/>
+      <c r="B96" s="30"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" s="1" customFormat="1" spans="2:5">
-      <c r="B97" s="23"/>
+      <c r="B97" s="30"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" s="1" customFormat="1" spans="2:5">
-      <c r="B98" s="23"/>
+      <c r="B98" s="30"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" s="1" customFormat="1" spans="2:5">
-      <c r="B99" s="23"/>
+      <c r="B99" s="30"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" s="1" customFormat="1" spans="2:5">
-      <c r="B100" s="23"/>
+      <c r="B100" s="30"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" s="1" customFormat="1" spans="2:5">
-      <c r="B101" s="23"/>
+      <c r="B101" s="30"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="2:5">
-      <c r="B102" s="23"/>
+      <c r="B102" s="30"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" s="1" customFormat="1" spans="2:5">
-      <c r="B103" s="23"/>
+      <c r="B103" s="30"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" s="1" customFormat="1" spans="2:5">
-      <c r="B104" s="23"/>
+      <c r="B104" s="30"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" s="1" customFormat="1" spans="2:5">
-      <c r="B105" s="23"/>
+      <c r="B105" s="30"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" s="1" customFormat="1" spans="2:5">
-      <c r="B106" s="23"/>
+      <c r="B106" s="30"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" s="1" customFormat="1" spans="2:5">
-      <c r="B107" s="23"/>
+      <c r="B107" s="30"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" s="1" customFormat="1" spans="2:5">
-      <c r="B108" s="23"/>
+      <c r="B108" s="30"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" s="1" customFormat="1" spans="2:5">
-      <c r="B109" s="23"/>
+      <c r="B109" s="30"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" s="1" customFormat="1" spans="2:5">
-      <c r="B110" s="23"/>
+      <c r="B110" s="30"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" s="1" customFormat="1" spans="2:5">
-      <c r="B111" s="23"/>
+      <c r="B111" s="30"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" s="1" customFormat="1" spans="2:5">
-      <c r="B112" s="23"/>
+      <c r="B112" s="30"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" s="1" customFormat="1" spans="2:5">
-      <c r="B113" s="23"/>
+      <c r="B113" s="30"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" s="1" customFormat="1" spans="2:5">
-      <c r="B114" s="23"/>
+      <c r="B114" s="30"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" s="1" customFormat="1" spans="2:5">
-      <c r="B115" s="23"/>
+      <c r="B115" s="30"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" s="1" customFormat="1" spans="2:5">
-      <c r="B116" s="23"/>
+      <c r="B116" s="30"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" s="1" customFormat="1" spans="2:5">
-      <c r="B117" s="23"/>
+      <c r="B117" s="30"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" s="1" customFormat="1" spans="2:5">
-      <c r="B118" s="23"/>
+      <c r="B118" s="30"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" s="1" customFormat="1" spans="2:5">
-      <c r="B119" s="23"/>
+      <c r="B119" s="30"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" s="1" customFormat="1" spans="2:5">
-      <c r="B120" s="23"/>
+      <c r="B120" s="30"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" s="1" customFormat="1" spans="2:5">
-      <c r="B121" s="23"/>
+      <c r="B121" s="30"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" s="1" customFormat="1" spans="2:5">
-      <c r="B122" s="23"/>
+      <c r="B122" s="30"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" s="1" customFormat="1" spans="2:5">
-      <c r="B123" s="23"/>
+      <c r="B123" s="30"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" s="1" customFormat="1" spans="2:5">
-      <c r="B124" s="23"/>
+      <c r="B124" s="30"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" s="1" customFormat="1" spans="2:5">
-      <c r="B125" s="23"/>
+      <c r="B125" s="30"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" s="1" customFormat="1" spans="2:5">
-      <c r="B126" s="23"/>
+      <c r="B126" s="30"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" s="1" customFormat="1" spans="2:5">
-      <c r="B127" s="23"/>
+      <c r="B127" s="30"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" s="1" customFormat="1" spans="2:5">
-      <c r="B128" s="23"/>
+      <c r="B128" s="30"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" s="1" customFormat="1" spans="2:5">
-      <c r="B129" s="23"/>
+      <c r="B129" s="30"/>
       <c r="E129" s="3"/>
     </row>
     <row r="130" s="1" customFormat="1" spans="2:5">
-      <c r="B130" s="23"/>
+      <c r="B130" s="30"/>
       <c r="E130" s="3"/>
     </row>
     <row r="131" s="1" customFormat="1" spans="2:5">
-      <c r="B131" s="23"/>
+      <c r="B131" s="30"/>
       <c r="E131" s="3"/>
     </row>
     <row r="132" s="1" customFormat="1" spans="2:5">
-      <c r="B132" s="23"/>
+      <c r="B132" s="30"/>
       <c r="E132" s="3"/>
     </row>
     <row r="133" s="1" customFormat="1" spans="2:5">
-      <c r="B133" s="23"/>
+      <c r="B133" s="30"/>
       <c r="E133" s="3"/>
     </row>
     <row r="134" s="1" customFormat="1" spans="2:5">
-      <c r="B134" s="23"/>
+      <c r="B134" s="30"/>
       <c r="E134" s="3"/>
     </row>
     <row r="135" s="1" customFormat="1" spans="2:5">
-      <c r="B135" s="23"/>
+      <c r="B135" s="30"/>
       <c r="E135" s="3"/>
     </row>
     <row r="136" s="1" customFormat="1" spans="2:5">
-      <c r="B136" s="23"/>
+      <c r="B136" s="30"/>
       <c r="E136" s="3"/>
     </row>
     <row r="137" s="1" customFormat="1" spans="2:5">
-      <c r="B137" s="23"/>
+      <c r="B137" s="30"/>
       <c r="E137" s="3"/>
     </row>
     <row r="138" s="1" customFormat="1" spans="2:5">
-      <c r="B138" s="23"/>
+      <c r="B138" s="30"/>
       <c r="E138" s="3"/>
     </row>
     <row r="139" s="1" customFormat="1" spans="2:5">
-      <c r="B139" s="23"/>
+      <c r="B139" s="30"/>
       <c r="E139" s="3"/>
     </row>
     <row r="140" s="1" customFormat="1" spans="2:5">
-      <c r="B140" s="23"/>
+      <c r="B140" s="30"/>
       <c r="E140" s="3"/>
     </row>
     <row r="141" s="1" customFormat="1" spans="2:5">
-      <c r="B141" s="23"/>
+      <c r="B141" s="30"/>
       <c r="E141" s="3"/>
     </row>
     <row r="142" s="1" customFormat="1" spans="2:5">
-      <c r="B142" s="23"/>
+      <c r="B142" s="30"/>
       <c r="E142" s="3"/>
     </row>
     <row r="143" s="1" customFormat="1" spans="2:5">
-      <c r="B143" s="23"/>
+      <c r="B143" s="30"/>
       <c r="E143" s="3"/>
     </row>
     <row r="144" s="1" customFormat="1" spans="2:5">
-      <c r="B144" s="23"/>
+      <c r="B144" s="30"/>
       <c r="E144" s="3"/>
     </row>
     <row r="145" s="1" customFormat="1" spans="2:5">
-      <c r="B145" s="23"/>
+      <c r="B145" s="30"/>
       <c r="E145" s="3"/>
     </row>
     <row r="146" s="1" customFormat="1" spans="2:5">
-      <c r="B146" s="23"/>
+      <c r="B146" s="30"/>
       <c r="E146" s="3"/>
     </row>
     <row r="147" s="1" customFormat="1" spans="2:5">
-      <c r="B147" s="23"/>
+      <c r="B147" s="30"/>
       <c r="E147" s="3"/>
     </row>
     <row r="148" s="1" customFormat="1" spans="2:5">
-      <c r="B148" s="23"/>
+      <c r="B148" s="30"/>
       <c r="E148" s="3"/>
     </row>
     <row r="149" s="1" customFormat="1" spans="2:5">
-      <c r="B149" s="23"/>
+      <c r="B149" s="30"/>
       <c r="E149" s="3"/>
     </row>
   </sheetData>
@@ -4192,706 +4330,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E130"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="56.25" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="13"/>
-      <c r="B6" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="21" customHeight="1" spans="1:5">
-      <c r="A7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
-      <c r="A8" s="13"/>
-      <c r="B8" s="22"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="13"/>
-      <c r="B9" s="22"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A10" s="13"/>
-      <c r="B10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="13"/>
-      <c r="B11" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="13"/>
-      <c r="B12" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="13"/>
-      <c r="B13" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="13"/>
-      <c r="B14" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="13"/>
-      <c r="B15" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:5">
-      <c r="A16" s="13"/>
-      <c r="B16" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:5">
-      <c r="A17" s="13"/>
-      <c r="B17" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:5">
-      <c r="A18" s="13"/>
-      <c r="B18" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:5">
-      <c r="A19" s="13"/>
-      <c r="B19" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="13"/>
-      <c r="B20" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:5">
-      <c r="A21" s="25"/>
-      <c r="B21" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="2:5">
-      <c r="B22" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="2:5">
-      <c r="B23" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="26"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B24" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="2:5">
-      <c r="B25" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="26"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B26" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
-      <c r="B27" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="2:5">
-      <c r="B37" s="23"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="2:5">
-      <c r="B38" s="23"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="2:5">
-      <c r="B39" s="23"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="23"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="23"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="23"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="2:5">
-      <c r="B43" s="23"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="23"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="2:5">
-      <c r="B45" s="23"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="23"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="23"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="23"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="23"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="23"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="23"/>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="23"/>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="23"/>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="2:5">
-      <c r="B54" s="23"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="2:5">
-      <c r="B55" s="23"/>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="2:5">
-      <c r="B56" s="23"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="2:5">
-      <c r="B57" s="23"/>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="2:5">
-      <c r="B58" s="23"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="2:5">
-      <c r="B59" s="23"/>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="23"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="2:5">
-      <c r="B61" s="23"/>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="2:5">
-      <c r="B62" s="23"/>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="2:5">
-      <c r="B63" s="23"/>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="2:5">
-      <c r="B64" s="23"/>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="2:5">
-      <c r="B65" s="23"/>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="2:5">
-      <c r="B66" s="23"/>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="2:5">
-      <c r="B67" s="23"/>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="2:5">
-      <c r="B68" s="23"/>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="2:5">
-      <c r="B69" s="23"/>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="2:5">
-      <c r="B70" s="23"/>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="2:5">
-      <c r="B71" s="23"/>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="2:5">
-      <c r="B72" s="23"/>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" s="1" customFormat="1" spans="2:5">
-      <c r="B73" s="23"/>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" s="1" customFormat="1" spans="2:5">
-      <c r="B74" s="23"/>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" s="1" customFormat="1" spans="2:5">
-      <c r="B75" s="23"/>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" s="1" customFormat="1" spans="2:5">
-      <c r="B76" s="23"/>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="2:5">
-      <c r="B77" s="23"/>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="2:5">
-      <c r="B78" s="23"/>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" s="1" customFormat="1" spans="2:5">
-      <c r="B79" s="23"/>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" s="1" customFormat="1" spans="2:5">
-      <c r="B80" s="23"/>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="2:5">
-      <c r="B81" s="23"/>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" s="1" customFormat="1" spans="2:5">
-      <c r="B82" s="23"/>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" s="1" customFormat="1" spans="2:5">
-      <c r="B83" s="23"/>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" s="1" customFormat="1" spans="2:5">
-      <c r="B84" s="23"/>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" s="1" customFormat="1" spans="2:5">
-      <c r="B85" s="23"/>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" s="1" customFormat="1" spans="2:5">
-      <c r="B86" s="23"/>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" s="1" customFormat="1" spans="2:5">
-      <c r="B87" s="23"/>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" s="1" customFormat="1" spans="2:5">
-      <c r="B88" s="23"/>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" s="1" customFormat="1" spans="2:5">
-      <c r="B89" s="23"/>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" s="1" customFormat="1" spans="2:5">
-      <c r="B90" s="23"/>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" s="1" customFormat="1" spans="2:5">
-      <c r="B91" s="23"/>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" s="1" customFormat="1" spans="2:5">
-      <c r="B92" s="23"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" s="1" customFormat="1" spans="2:5">
-      <c r="B93" s="23"/>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" s="1" customFormat="1" spans="2:5">
-      <c r="B94" s="23"/>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" s="1" customFormat="1" spans="2:5">
-      <c r="B95" s="23"/>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" s="1" customFormat="1" spans="2:5">
-      <c r="B96" s="23"/>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" s="1" customFormat="1" spans="2:5">
-      <c r="B97" s="23"/>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" s="1" customFormat="1" spans="2:5">
-      <c r="B98" s="23"/>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" s="1" customFormat="1" spans="2:5">
-      <c r="B99" s="23"/>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" s="1" customFormat="1" spans="2:5">
-      <c r="B100" s="23"/>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" s="1" customFormat="1" spans="2:5">
-      <c r="B101" s="23"/>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" s="1" customFormat="1" spans="2:5">
-      <c r="B102" s="23"/>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" s="1" customFormat="1" spans="2:5">
-      <c r="B103" s="23"/>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" s="1" customFormat="1" spans="2:5">
-      <c r="B104" s="23"/>
-      <c r="E104" s="3"/>
-    </row>
-    <row r="105" s="1" customFormat="1" spans="2:5">
-      <c r="B105" s="23"/>
-      <c r="E105" s="3"/>
-    </row>
-    <row r="106" s="1" customFormat="1" spans="2:5">
-      <c r="B106" s="23"/>
-      <c r="E106" s="3"/>
-    </row>
-    <row r="107" s="1" customFormat="1" spans="2:5">
-      <c r="B107" s="23"/>
-      <c r="E107" s="3"/>
-    </row>
-    <row r="108" s="1" customFormat="1" spans="2:5">
-      <c r="B108" s="23"/>
-      <c r="E108" s="3"/>
-    </row>
-    <row r="109" s="1" customFormat="1" spans="2:5">
-      <c r="B109" s="23"/>
-      <c r="E109" s="3"/>
-    </row>
-    <row r="110" s="1" customFormat="1" spans="2:5">
-      <c r="B110" s="23"/>
-      <c r="E110" s="3"/>
-    </row>
-    <row r="111" s="1" customFormat="1" spans="2:5">
-      <c r="B111" s="23"/>
-      <c r="E111" s="3"/>
-    </row>
-    <row r="112" s="1" customFormat="1" spans="2:5">
-      <c r="B112" s="23"/>
-      <c r="E112" s="3"/>
-    </row>
-    <row r="113" s="1" customFormat="1" spans="2:5">
-      <c r="B113" s="23"/>
-      <c r="E113" s="3"/>
-    </row>
-    <row r="114" s="1" customFormat="1" spans="2:5">
-      <c r="B114" s="23"/>
-      <c r="E114" s="3"/>
-    </row>
-    <row r="115" s="1" customFormat="1" spans="2:5">
-      <c r="B115" s="23"/>
-      <c r="E115" s="3"/>
-    </row>
-    <row r="116" s="1" customFormat="1" spans="2:5">
-      <c r="B116" s="23"/>
-      <c r="E116" s="3"/>
-    </row>
-    <row r="117" s="1" customFormat="1" spans="2:5">
-      <c r="B117" s="23"/>
-      <c r="E117" s="3"/>
-    </row>
-    <row r="118" s="1" customFormat="1" spans="2:5">
-      <c r="B118" s="23"/>
-      <c r="E118" s="3"/>
-    </row>
-    <row r="119" s="1" customFormat="1" spans="2:5">
-      <c r="B119" s="23"/>
-      <c r="E119" s="3"/>
-    </row>
-    <row r="120" s="1" customFormat="1" spans="2:5">
-      <c r="B120" s="23"/>
-      <c r="E120" s="3"/>
-    </row>
-    <row r="121" s="1" customFormat="1" spans="2:5">
-      <c r="B121" s="23"/>
-      <c r="E121" s="3"/>
-    </row>
-    <row r="122" s="1" customFormat="1" spans="2:5">
-      <c r="B122" s="23"/>
-      <c r="E122" s="3"/>
-    </row>
-    <row r="123" s="1" customFormat="1" spans="2:5">
-      <c r="B123" s="23"/>
-      <c r="E123" s="3"/>
-    </row>
-    <row r="124" s="1" customFormat="1" spans="2:5">
-      <c r="B124" s="23"/>
-      <c r="E124" s="3"/>
-    </row>
-    <row r="125" s="1" customFormat="1" spans="2:5">
-      <c r="B125" s="23"/>
-      <c r="E125" s="3"/>
-    </row>
-    <row r="126" s="1" customFormat="1" spans="2:5">
-      <c r="B126" s="23"/>
-      <c r="E126" s="3"/>
-    </row>
-    <row r="127" s="1" customFormat="1" spans="2:5">
-      <c r="B127" s="23"/>
-      <c r="E127" s="3"/>
-    </row>
-    <row r="128" s="1" customFormat="1" spans="2:5">
-      <c r="B128" s="23"/>
-      <c r="E128" s="3"/>
-    </row>
-    <row r="129" s="1" customFormat="1" spans="2:5">
-      <c r="B129" s="23"/>
-      <c r="E129" s="3"/>
-    </row>
-    <row r="130" s="1" customFormat="1" spans="2:5">
-      <c r="B130" s="23"/>
-      <c r="E130" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A7:A21"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.129:9200/index_product/product_type/120161115172645001" tooltip="http://192.168.1.129:9200/index_product/product_type/120161115172645001"/>
-  </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>